--- a/Data/g3.xlsx
+++ b/Data/g3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afa0d6d9c1382b5f/Documents/Master i treningsfysiologi/Kvantitativ metode og statistikk/Rapport 1 - VO2max/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mappeeksamen\Mappeeksamen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55832E6E-06C6-459B-A5D3-3A73A34E44C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ECD0B1-B50F-4801-986D-614A616367F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{750E1C5E-D63F-2C42-8661-E8C855340EA2}"/>
   </bookViews>
@@ -226,11 +226,6 @@
         <row r="12">
           <cell r="D12">
             <v>45532</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>0.53125</v>
           </cell>
         </row>
         <row r="18">
@@ -605,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD1BA2F-0A05-DB4B-A566-FA0C78737731}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -691,7 +686,6 @@
         <v>45532</v>
       </c>
       <c r="E2" s="2">
-        <f>[1]plotting!D13</f>
         <v>0.53125</v>
       </c>
       <c r="F2">
